--- a/mock up form.xlsx
+++ b/mock up form.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -181,25 +181,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,6 +204,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +432,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>762000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>38099</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
@@ -823,133 +823,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
+      <c r="C8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="14"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,37 +957,44 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="M16" s="6" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="M16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="8"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G18:I18"/>
@@ -999,13 +1006,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
   </mergeCells>
@@ -1016,8 +1016,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId4" name="ComboBox4">
+        <control shapeId="1028" r:id="rId4" name="ComboBox1">
           <controlPr autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId4" name="ComboBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId6" name="ComboBox2">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId6" name="ComboBox2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId8" name="ComboBox3">
+          <controlPr autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId8" name="ComboBox3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId10" name="ComboBox4">
+          <controlPr autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -1036,82 +1111,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId4" name="ComboBox4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId6" name="ComboBox3">
-          <controlPr autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId6" name="ComboBox3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId8" name="ComboBox2">
-          <controlPr autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId8" name="ComboBox2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="ComboBox1">
-          <controlPr autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="ComboBox1"/>
+        <control shapeId="1031" r:id="rId10" name="ComboBox4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
